--- a/lab5.xlsx
+++ b/lab5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\admin\Documents\GitHub\SaAoDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5869789D-3A99-41AA-8598-B7E25413702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E09A684-918C-4870-8721-1243D7826BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E976A7E4-A259-4605-B25B-E31DBCA6EC64}"/>
   </bookViews>
@@ -419,13 +419,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,25 +448,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,55 +475,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>588818</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>116410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>209975</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>71451</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1391C630-D093-4C3B-98EA-2E80BF7CEA37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="588818" y="2973910"/>
-          <a:ext cx="27511422" cy="7765541"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,7 +777,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,17 +789,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="8"/>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -865,25 +816,25 @@
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="29"/>
       <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
@@ -913,19 +864,19 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
@@ -955,7 +906,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
@@ -977,7 +928,7 @@
       <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1001,7 +952,7 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1023,25 +974,25 @@
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13">
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="11">
         <v>500</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1063,12 +1014,12 @@
       <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1090,24 +1041,24 @@
       <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="14">
         <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1129,7 +1080,7 @@
       <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="14">
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1144,10 +1095,10 @@
       <c r="N8" s="7">
         <v>8</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="18">
         <v>9</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="18">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
@@ -1158,7 +1109,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1180,7 +1131,7 @@
       <c r="H9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="14">
         <v>5</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1209,7 +1160,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1231,28 +1182,28 @@
       <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="14">
         <v>6</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>3.1E-2</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="11">
         <v>38.762</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <v>115.11</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>178.85</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <v>987.54</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="R10" s="6" t="s">
@@ -1260,29 +1211,29 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="16">
         <v>7</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="16">
         <v>7</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="16">
         <v>7</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="17">
         <v>7</v>
       </c>
     </row>
@@ -1319,6 +1270,5 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>